--- a/MATURAAAlis.xlsx
+++ b/MATURAAAlis.xlsx
@@ -70,7 +70,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -89,6 +89,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -102,12 +108,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -390,8 +397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I183"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView tabSelected="1" topLeftCell="A158" workbookViewId="0">
+      <selection activeCell="J181" sqref="J181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7086,7 +7093,7 @@
         <f t="shared" si="20"/>
         <v>-600.08000000000004</v>
       </c>
-      <c r="I182" s="1">
+      <c r="I182" s="5">
         <f t="shared" si="23"/>
         <v>10109.100000000011</v>
       </c>
